--- a/detections.xlsx
+++ b/detections.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2821"/>
+  <dimension ref="A1:C2846"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42750,6 +42750,381 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2822">
+      <c r="A2822" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2822" t="inlineStr">
+        <is>
+          <t>05:49:57 PM</t>
+        </is>
+      </c>
+      <c r="C2822" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2823" t="inlineStr">
+        <is>
+          <t>05:49:59 PM</t>
+        </is>
+      </c>
+      <c r="C2823" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2824" t="inlineStr">
+        <is>
+          <t>05:50:02 PM</t>
+        </is>
+      </c>
+      <c r="C2824" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2825" t="inlineStr">
+        <is>
+          <t>05:50:04 PM</t>
+        </is>
+      </c>
+      <c r="C2825" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2826" t="inlineStr">
+        <is>
+          <t>05:50:06 PM</t>
+        </is>
+      </c>
+      <c r="C2826" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2827">
+      <c r="A2827" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2827" t="inlineStr">
+        <is>
+          <t>05:50:08 PM</t>
+        </is>
+      </c>
+      <c r="C2827" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2828" t="inlineStr">
+        <is>
+          <t>05:50:10 PM</t>
+        </is>
+      </c>
+      <c r="C2828" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2829" t="inlineStr">
+        <is>
+          <t>05:50:13 PM</t>
+        </is>
+      </c>
+      <c r="C2829" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2830" t="inlineStr">
+        <is>
+          <t>05:50:15 PM</t>
+        </is>
+      </c>
+      <c r="C2830" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2831" t="inlineStr">
+        <is>
+          <t>05:50:17 PM</t>
+        </is>
+      </c>
+      <c r="C2831" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2832" t="inlineStr">
+        <is>
+          <t>05:50:19 PM</t>
+        </is>
+      </c>
+      <c r="C2832" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2833" t="inlineStr">
+        <is>
+          <t>05:50:22 PM</t>
+        </is>
+      </c>
+      <c r="C2833" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2834" t="inlineStr">
+        <is>
+          <t>05:50:24 PM</t>
+        </is>
+      </c>
+      <c r="C2834" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2835" t="inlineStr">
+        <is>
+          <t>05:50:27 PM</t>
+        </is>
+      </c>
+      <c r="C2835" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2836" t="inlineStr">
+        <is>
+          <t>05:50:29 PM</t>
+        </is>
+      </c>
+      <c r="C2836" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2837" t="inlineStr">
+        <is>
+          <t>05:50:31 PM</t>
+        </is>
+      </c>
+      <c r="C2837" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2838" t="inlineStr">
+        <is>
+          <t>05:50:33 PM</t>
+        </is>
+      </c>
+      <c r="C2838" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2839" t="inlineStr">
+        <is>
+          <t>05:50:35 PM</t>
+        </is>
+      </c>
+      <c r="C2839" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2840" t="inlineStr">
+        <is>
+          <t>05:50:37 PM</t>
+        </is>
+      </c>
+      <c r="C2840" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2841" t="inlineStr">
+        <is>
+          <t>05:50:40 PM</t>
+        </is>
+      </c>
+      <c r="C2841" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2842" t="inlineStr">
+        <is>
+          <t>05:50:42 PM</t>
+        </is>
+      </c>
+      <c r="C2842" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2843" t="inlineStr">
+        <is>
+          <t>05:50:44 PM</t>
+        </is>
+      </c>
+      <c r="C2843" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2844">
+      <c r="A2844" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2844" t="inlineStr">
+        <is>
+          <t>05:50:46 PM</t>
+        </is>
+      </c>
+      <c r="C2844" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2845">
+      <c r="A2845" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2845" t="inlineStr">
+        <is>
+          <t>05:50:48 PM</t>
+        </is>
+      </c>
+      <c r="C2845" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2846">
+      <c r="A2846" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2846" t="inlineStr">
+        <is>
+          <t>05:50:50 PM</t>
+        </is>
+      </c>
+      <c r="C2846" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/detections.xlsx
+++ b/detections.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2846"/>
+  <dimension ref="A1:C2879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43125,6 +43125,501 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2847">
+      <c r="A2847" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2847" t="inlineStr">
+        <is>
+          <t>06:27:37 PM</t>
+        </is>
+      </c>
+      <c r="C2847" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2848">
+      <c r="A2848" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2848" t="inlineStr">
+        <is>
+          <t>06:27:39 PM</t>
+        </is>
+      </c>
+      <c r="C2848" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2849" t="inlineStr">
+        <is>
+          <t>06:27:41 PM</t>
+        </is>
+      </c>
+      <c r="C2849" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2850">
+      <c r="A2850" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2850" t="inlineStr">
+        <is>
+          <t>06:27:43 PM</t>
+        </is>
+      </c>
+      <c r="C2850" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2851">
+      <c r="A2851" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2851" t="inlineStr">
+        <is>
+          <t>06:27:45 PM</t>
+        </is>
+      </c>
+      <c r="C2851" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="A2852" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2852" t="inlineStr">
+        <is>
+          <t>06:27:47 PM</t>
+        </is>
+      </c>
+      <c r="C2852" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="A2853" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2853" t="inlineStr">
+        <is>
+          <t>06:27:50 PM</t>
+        </is>
+      </c>
+      <c r="C2853" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="A2854" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2854" t="inlineStr">
+        <is>
+          <t>06:27:52 PM</t>
+        </is>
+      </c>
+      <c r="C2854" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="A2855" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2855" t="inlineStr">
+        <is>
+          <t>06:27:54 PM</t>
+        </is>
+      </c>
+      <c r="C2855" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2856" t="inlineStr">
+        <is>
+          <t>06:27:56 PM</t>
+        </is>
+      </c>
+      <c r="C2856" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2857" t="inlineStr">
+        <is>
+          <t>06:27:58 PM</t>
+        </is>
+      </c>
+      <c r="C2857" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2858" t="inlineStr">
+        <is>
+          <t>06:28:00 PM</t>
+        </is>
+      </c>
+      <c r="C2858" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2859" t="inlineStr">
+        <is>
+          <t>06:28:03 PM</t>
+        </is>
+      </c>
+      <c r="C2859" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2860" t="inlineStr">
+        <is>
+          <t>06:28:05 PM</t>
+        </is>
+      </c>
+      <c r="C2860" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2861" t="inlineStr">
+        <is>
+          <t>06:28:07 PM</t>
+        </is>
+      </c>
+      <c r="C2861" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2862" t="inlineStr">
+        <is>
+          <t>06:28:09 PM</t>
+        </is>
+      </c>
+      <c r="C2862" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2863" t="inlineStr">
+        <is>
+          <t>06:28:11 PM</t>
+        </is>
+      </c>
+      <c r="C2863" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2864" t="inlineStr">
+        <is>
+          <t>06:28:13 PM</t>
+        </is>
+      </c>
+      <c r="C2864" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2865" t="inlineStr">
+        <is>
+          <t>06:28:16 PM</t>
+        </is>
+      </c>
+      <c r="C2865" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>06:28:18 PM</t>
+        </is>
+      </c>
+      <c r="C2866" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2867" t="inlineStr">
+        <is>
+          <t>06:28:20 PM</t>
+        </is>
+      </c>
+      <c r="C2867" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2868" t="inlineStr">
+        <is>
+          <t>06:28:22 PM</t>
+        </is>
+      </c>
+      <c r="C2868" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2869" t="inlineStr">
+        <is>
+          <t>06:28:24 PM</t>
+        </is>
+      </c>
+      <c r="C2869" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2870" t="inlineStr">
+        <is>
+          <t>06:28:26 PM</t>
+        </is>
+      </c>
+      <c r="C2870" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2871" t="inlineStr">
+        <is>
+          <t>06:28:28 PM</t>
+        </is>
+      </c>
+      <c r="C2871" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2872" t="inlineStr">
+        <is>
+          <t>06:28:30 PM</t>
+        </is>
+      </c>
+      <c r="C2872" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2873" t="inlineStr">
+        <is>
+          <t>06:28:33 PM</t>
+        </is>
+      </c>
+      <c r="C2873" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2874" t="inlineStr">
+        <is>
+          <t>06:28:35 PM</t>
+        </is>
+      </c>
+      <c r="C2874" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2875" t="inlineStr">
+        <is>
+          <t>06:28:37 PM</t>
+        </is>
+      </c>
+      <c r="C2875" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2876" t="inlineStr">
+        <is>
+          <t>06:28:39 PM</t>
+        </is>
+      </c>
+      <c r="C2876" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2877" t="inlineStr">
+        <is>
+          <t>06:28:42 PM</t>
+        </is>
+      </c>
+      <c r="C2877" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2878" t="inlineStr">
+        <is>
+          <t>06:28:44 PM</t>
+        </is>
+      </c>
+      <c r="C2878" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B2879" t="inlineStr">
+        <is>
+          <t>06:28:48 PM</t>
+        </is>
+      </c>
+      <c r="C2879" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
